--- a/bin/resource/origin.xlsx
+++ b/bin/resource/origin.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sk\SkTask\bin\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0DAAAD-FD98-4216-8BF9-9546826B484C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BE99E-E5B5-4FBF-9AE0-B000CDED0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{63267368-F34A-44F5-9123-B137FA8B1368}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{63267368-F34A-44F5-9123-B137FA8B1368}"/>
   </bookViews>
   <sheets>
     <sheet name="접두" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>효과를 받는 동안 플레이어에게 적용되는 냉각 효과 60% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,102 @@
   </si>
   <si>
     <t># 빈 접미어 속성 부여</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diamond Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sapphire Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topaz Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Granite Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quicksilver Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amethyst Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jade Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basalt Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquamarine Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stibnite Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sulphur Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bismuth Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corundum Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -617,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B7C9BC-274A-4745-9B91-BBD68D87B87C}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -628,84 +724,101 @@
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="C1">
+      <c r="D2">
         <v>32</v>
       </c>
-      <c r="D1">
+      <c r="E2">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2">
-        <v>46</v>
-      </c>
-      <c r="D2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
       </c>
-      <c r="C3">
+      <c r="D3">
+        <v>46</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4">
         <v>61</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
         <v>27</v>
       </c>
-      <c r="C4">
+      <c r="D5">
         <v>31</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C8">
+      <c r="D9">
         <v>26</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>47</v>
       </c>
     </row>
@@ -719,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E91918F-26F2-44A6-9E4A-56FFEFA71802}">
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
@@ -906,103 +1019,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87148905-1D73-4419-86FB-4E0EB997ECFB}">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://poedb.tw/kr/Diamond_Flask" xr:uid="{DD0287BD-19FA-40BD-BB23-D0E6A64B416A}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://poedb.tw/kr/Diamond_Flask" xr:uid="{DD0287BD-19FA-40BD-BB23-D0E6A64B416A}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://poedb.tw/us/Diamond_Flask" xr:uid="{30F5FA48-A892-4969-8A07-7B5C027BBEA1}"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://poedb.tw/us/Ruby_Flask" xr:uid="{38F46907-E275-4026-8D55-666584BDFF9E}"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://poedb.tw/us/Sapphire_Flask" xr:uid="{0E68D20B-615A-4EBA-9C46-36E007E9A29F}"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://poedb.tw/us/Topaz_Flask" xr:uid="{851D9275-44F3-417A-8C89-7161B65A5491}"/>
+    <hyperlink ref="B6" r:id="rId6" display="https://poedb.tw/us/Granite_Flask" xr:uid="{2F9B40AC-039B-468E-B204-4674C8F379C0}"/>
+    <hyperlink ref="B7" r:id="rId7" display="https://poedb.tw/us/Quicksilver_Flask" xr:uid="{8A5C786C-84AA-4256-82FB-9A3EBCDE73A8}"/>
+    <hyperlink ref="B8" r:id="rId8" display="https://poedb.tw/us/Amethyst_Flask" xr:uid="{85225477-FFEC-4171-94DB-4936BF6B3010}"/>
+    <hyperlink ref="B9" r:id="rId9" display="https://poedb.tw/us/Quartz_Flask" xr:uid="{227AF4F5-7608-4D31-AAA5-4F667DD4ACBE}"/>
+    <hyperlink ref="B10" r:id="rId10" display="https://poedb.tw/us/Jade_Flask" xr:uid="{9B0AD176-FF7A-4EB1-AC67-321D32786E09}"/>
+    <hyperlink ref="B11" r:id="rId11" display="https://poedb.tw/us/Basalt_Flask" xr:uid="{7121543A-85A4-47F9-A0C2-CD295D2D66C9}"/>
+    <hyperlink ref="B12" r:id="rId12" display="https://poedb.tw/us/Aquamarine_Flask" xr:uid="{36FB8F42-47FA-4121-9853-ECFDF01C3C5B}"/>
+    <hyperlink ref="B13" r:id="rId13" display="https://poedb.tw/us/Stibnite_Flask" xr:uid="{A27DE5FF-E5FB-413E-90C0-E38735E6D8BE}"/>
+    <hyperlink ref="B14" r:id="rId14" display="https://poedb.tw/us/Sulphur_Flask" xr:uid="{DDB8F23A-2DAD-4620-BC4E-AE35ADDCD534}"/>
+    <hyperlink ref="B15" r:id="rId15" display="https://poedb.tw/us/Silver_Flask" xr:uid="{347F8EAC-B1CF-418F-B531-5180B5597B01}"/>
+    <hyperlink ref="B16" r:id="rId16" display="https://poedb.tw/us/Bismuth_Flask" xr:uid="{952DB914-DDF7-4889-8761-D54D1B2E9482}"/>
+    <hyperlink ref="B17" r:id="rId17" display="https://poedb.tw/us/Gold_Flask" xr:uid="{61D86E66-2530-4729-839B-E8CDBC55E008}"/>
+    <hyperlink ref="B18" r:id="rId18" display="https://poedb.tw/us/Corundum_Flask" xr:uid="{65F854F2-1057-49C5-A46B-84C3033CA21D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/bin/resource/origin.xlsx
+++ b/bin/resource/origin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sk\SkTask\bin\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9BE99E-E5B5-4FBF-9AE0-B000CDED0973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9873D078-4B58-472C-A5F0-D56E7A38BC0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{63267368-F34A-44F5-9123-B137FA8B1368}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{63267368-F34A-44F5-9123-B137FA8B1368}"/>
   </bookViews>
   <sheets>
     <sheet name="접두" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>효과를 받는 동안 플레이어에게 적용되는 냉각 효과 60% 감소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,8 +124,178 @@
     <t>효과 25% 증가</t>
   </si>
   <si>
+    <t>충전 최대치 +#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전 회복 #% 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치명타 명중 시 #%의 확률로 플라스크 1 충전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 1회당 충전 소모량 #% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과를 받는 동안 플레이어에게 적용되는 저주 효과 #% 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>루비 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사파이어 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>토파즈 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화강암 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수은 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자수정 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>석영 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비취 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현무암 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아쿠아마린 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘안석 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유황 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>은 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비스무트 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강옥 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다이아몬드 플라스크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># 빈 접두어 속성 부여</t>
+  </si>
+  <si>
+    <t># 빈 접미어 속성 부여</t>
+  </si>
+  <si>
+    <t>Diamond Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ruby Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sapphire Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Topaz Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Granite Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quicksilver Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amethyst Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quartz Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jade Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Basalt Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aquamarine Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stibnite Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sulphur Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Silver Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bismuth Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Corundum Flask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KRName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">지속시간 </t>
+      <t>지속시간 #</t>
     </r>
     <r>
       <rPr>
@@ -149,193 +319,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충전 최대치 +#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충전 회복 #% 증가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>치명타 명중 시 #%의 확률로 플라스크 1 충전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용 1회당 충전 소모량 #% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>효과를 받는 동안 플레이어에게 적용되는 저주 효과 #% 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>루비 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사파이어 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>토파즈 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화강암 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수은 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>자수정 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>석영 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비취 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현무암 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아쿠아마린 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휘안석 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유황 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비스무트 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>황금 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강옥 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다이아몬드 플라스크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t># 빈 접두어 속성 부여</t>
-  </si>
-  <si>
-    <t># 빈 접미어 속성 부여</t>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isRange</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>min</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>max</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Diamond Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ruby Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sapphire Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Topaz Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Granite Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quicksilver Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Amethyst Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Quartz Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jade Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Basalt Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Aquamarine Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stibnite Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sulphur Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Silver Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bismuth Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gold Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Corundum Flask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KRName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnName</t>
+    <t>OptionKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsRange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameKR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>풍족한</t>
+  </si>
+  <si>
+    <t>의사의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고행자의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실험자의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화학자의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OptionEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+# to Maximum Charges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#% increased Charge Recovery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#% chance to gain a Flask Charge when you deal a Critical Strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gain 3 Charges when you are Hit by an Enemy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Perpetual</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rationed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Surgeon's	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Flagellant's	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Alchemist's	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25% increased effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#% increased Duration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Experimenter's</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#% reduced Charges per use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemist's	</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t># Empty Prefix Modifiers</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -395,8 +486,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -713,37 +807,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29B7C9BC-274A-4745-9B91-BBD68D87B87C}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
       </c>
       <c r="D2">
         <v>32</v>
@@ -751,13 +858,22 @@
       <c r="E2">
         <v>35</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
       </c>
       <c r="D3">
         <v>46</v>
@@ -765,13 +881,22 @@
       <c r="E3">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
       </c>
       <c r="D4">
         <v>61</v>
@@ -779,10 +904,22 @@
       <c r="E4">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
       </c>
       <c r="D5">
         <v>31</v>
@@ -790,25 +927,70 @@
       <c r="E5">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
       <c r="B8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C9" t="b">
+        <v>1</v>
       </c>
       <c r="D9">
         <v>26</v>
@@ -816,10 +998,22 @@
       <c r="E9">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -957,7 +1151,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -1008,7 +1202,7 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1021,7 +1215,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87148905-1D73-4419-86FB-4E0EB997ECFB}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -1032,146 +1226,146 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
